--- a/pred_ohlcv/54/2019-10-10 VET ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-10 VET ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H206"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="C2" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="E2" t="n">
         <v>4.53</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.52</v>
-      </c>
       <c r="F2" t="n">
-        <v>250376.8897</v>
+        <v>197840.7167</v>
       </c>
       <c r="G2" t="n">
-        <v>4.479833333333327</v>
+        <v>4.477333333333328</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C3" t="n">
         <v>4.53</v>
       </c>
-      <c r="C3" t="n">
-        <v>4.54</v>
-      </c>
       <c r="D3" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E3" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F3" t="n">
-        <v>122506.024</v>
+        <v>250376.8897</v>
       </c>
       <c r="G3" t="n">
-        <v>4.482499999999994</v>
+        <v>4.479833333333327</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>4.53</v>
       </c>
       <c r="C4" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="D4" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="E4" t="n">
         <v>4.53</v>
       </c>
       <c r="F4" t="n">
-        <v>976832.6552</v>
+        <v>122506.024</v>
       </c>
       <c r="G4" t="n">
-        <v>4.485499999999994</v>
+        <v>4.482499999999994</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="C5" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D5" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E5" t="n">
-        <v>4.56</v>
+        <v>4.53</v>
       </c>
       <c r="F5" t="n">
-        <v>446428.5713</v>
+        <v>976832.6552</v>
       </c>
       <c r="G5" t="n">
-        <v>4.488333333333328</v>
+        <v>4.485499999999994</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C6" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D6" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E6" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F6" t="n">
-        <v>2340777.0924</v>
+        <v>446428.5713</v>
       </c>
       <c r="G6" t="n">
-        <v>4.491499999999994</v>
+        <v>4.488333333333328</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>4.57</v>
       </c>
       <c r="C7" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="D7" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="E7" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F7" t="n">
-        <v>269511.6377</v>
+        <v>2340777.0924</v>
       </c>
       <c r="G7" t="n">
-        <v>4.494499999999994</v>
+        <v>4.491499999999994</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,25 +587,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C8" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D8" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="E8" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>269511.6377</v>
       </c>
       <c r="G8" t="n">
-        <v>4.497166666666661</v>
+        <v>4.494499999999994</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +616,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C9" t="n">
         <v>4.59</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.56</v>
-      </c>
       <c r="D9" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E9" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="F9" t="n">
-        <v>526946.1644</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="n">
-        <v>4.499333333333327</v>
+        <v>4.497166666666661</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C10" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D10" t="n">
-        <v>4.61</v>
+        <v>4.62</v>
       </c>
       <c r="E10" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F10" t="n">
-        <v>127245.9838</v>
+        <v>526946.1644</v>
       </c>
       <c r="G10" t="n">
-        <v>4.501166666666661</v>
+        <v>4.499333333333327</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.64</v>
+        <v>4.57</v>
       </c>
       <c r="C11" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="D11" t="n">
-        <v>4.64</v>
+        <v>4.61</v>
       </c>
       <c r="E11" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="F11" t="n">
-        <v>10370.6896</v>
+        <v>127245.9838</v>
       </c>
       <c r="G11" t="n">
-        <v>4.503999999999994</v>
+        <v>4.501166666666661</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="C12" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="D12" t="n">
-        <v>4.59</v>
+        <v>4.64</v>
       </c>
       <c r="E12" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>10370.6896</v>
       </c>
       <c r="G12" t="n">
-        <v>4.506999999999993</v>
+        <v>4.503999999999994</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,25 +732,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="C13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E13" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>4.51016666666666</v>
+        <v>4.506999999999993</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="C14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="D14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="E14" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="F14" t="n">
-        <v>127301.1144</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="n">
-        <v>4.513333333333327</v>
+        <v>4.51016666666666</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>4.58</v>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>127301.1144</v>
       </c>
       <c r="G15" t="n">
-        <v>4.51566666666666</v>
+        <v>4.513333333333327</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>4.58</v>
       </c>
       <c r="C16" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D16" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E16" t="n">
         <v>4.58</v>
       </c>
       <c r="F16" t="n">
-        <v>55859.902</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="n">
-        <v>4.517999999999993</v>
+        <v>4.51566666666666</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>4.58</v>
       </c>
       <c r="F17" t="n">
-        <v>59615.4014</v>
+        <v>55859.902</v>
       </c>
       <c r="G17" t="n">
-        <v>4.520833333333326</v>
+        <v>4.517999999999993</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C18" t="n">
         <v>4.59</v>
@@ -833,15 +886,18 @@
         <v>4.59</v>
       </c>
       <c r="E18" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F18" t="n">
-        <v>4283.8296</v>
+        <v>59615.4014</v>
       </c>
       <c r="G18" t="n">
-        <v>4.523166666666659</v>
+        <v>4.520833333333326</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="C19" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D19" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="E19" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="F19" t="n">
-        <v>212264.7311</v>
+        <v>4283.8296</v>
       </c>
       <c r="G19" t="n">
-        <v>4.526166666666658</v>
+        <v>4.523166666666659</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.65</v>
+        <v>4.61</v>
       </c>
       <c r="C20" t="n">
         <v>4.65</v>
@@ -885,15 +944,18 @@
         <v>4.65</v>
       </c>
       <c r="E20" t="n">
-        <v>4.65</v>
+        <v>4.61</v>
       </c>
       <c r="F20" t="n">
-        <v>62.7956</v>
+        <v>212264.7311</v>
       </c>
       <c r="G20" t="n">
-        <v>4.529499999999991</v>
+        <v>4.526166666666658</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="C21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="D21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="E21" t="n">
-        <v>4.62</v>
+        <v>4.65</v>
       </c>
       <c r="F21" t="n">
-        <v>8353.633099999999</v>
+        <v>62.7956</v>
       </c>
       <c r="G21" t="n">
-        <v>4.532333333333325</v>
+        <v>4.529499999999991</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="C22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="D22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="E22" t="n">
-        <v>4.56</v>
+        <v>4.62</v>
       </c>
       <c r="F22" t="n">
-        <v>4632.4792</v>
+        <v>8353.633099999999</v>
       </c>
       <c r="G22" t="n">
-        <v>4.534166666666659</v>
+        <v>4.532333333333325</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C23" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D23" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="E23" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F23" t="n">
-        <v>7115.3987</v>
+        <v>4632.4792</v>
       </c>
       <c r="G23" t="n">
-        <v>4.535499999999991</v>
+        <v>4.534166666666659</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="C24" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="D24" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="E24" t="n">
-        <v>4.61</v>
+        <v>4.57</v>
       </c>
       <c r="F24" t="n">
-        <v>730.9942</v>
+        <v>7115.3987</v>
       </c>
       <c r="G24" t="n">
-        <v>4.537833333333325</v>
+        <v>4.535499999999991</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="C25" t="n">
         <v>4.61</v>
@@ -1015,15 +1089,18 @@
         <v>4.61</v>
       </c>
       <c r="E25" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="F25" t="n">
-        <v>2081.8438</v>
+        <v>730.9942</v>
       </c>
       <c r="G25" t="n">
-        <v>4.539999999999991</v>
+        <v>4.537833333333325</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C26" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="D26" t="n">
-        <v>4.57</v>
+        <v>4.61</v>
       </c>
       <c r="E26" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F26" t="n">
-        <v>6512.8032</v>
+        <v>2081.8438</v>
       </c>
       <c r="G26" t="n">
-        <v>4.541333333333324</v>
+        <v>4.539999999999991</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>4.57</v>
       </c>
       <c r="F27" t="n">
-        <v>291297.7272</v>
+        <v>6512.8032</v>
       </c>
       <c r="G27" t="n">
-        <v>4.542666666666658</v>
+        <v>4.541333333333324</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1167,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C28" t="n">
         <v>4.57</v>
@@ -1093,15 +1176,18 @@
         <v>4.57</v>
       </c>
       <c r="E28" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F28" t="n">
-        <v>330157.8308</v>
+        <v>291297.7272</v>
       </c>
       <c r="G28" t="n">
-        <v>4.543833333333324</v>
+        <v>4.542666666666658</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C29" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="D29" t="n">
-        <v>4.6</v>
+        <v>4.57</v>
       </c>
       <c r="E29" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F29" t="n">
-        <v>74324.0144</v>
+        <v>330157.8308</v>
       </c>
       <c r="G29" t="n">
-        <v>4.545499999999991</v>
+        <v>4.543833333333324</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>4.57</v>
       </c>
       <c r="C30" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="D30" t="n">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="E30" t="n">
         <v>4.57</v>
       </c>
       <c r="F30" t="n">
-        <v>70000</v>
+        <v>74324.0144</v>
       </c>
       <c r="G30" t="n">
-        <v>4.546833333333324</v>
+        <v>4.545499999999991</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="C31" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="D31" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="E31" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="F31" t="n">
-        <v>517707.694</v>
+        <v>70000</v>
       </c>
       <c r="G31" t="n">
-        <v>4.548333333333323</v>
+        <v>4.546833333333324</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="C32" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D32" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E32" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="F32" t="n">
-        <v>2048.3508</v>
+        <v>517707.694</v>
       </c>
       <c r="G32" t="n">
-        <v>4.549833333333323</v>
+        <v>4.548333333333323</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>4.56</v>
       </c>
       <c r="F33" t="n">
-        <v>34264.5418</v>
+        <v>2048.3508</v>
       </c>
       <c r="G33" t="n">
-        <v>4.551166666666656</v>
+        <v>4.549833333333323</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>4.56</v>
       </c>
       <c r="C34" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D34" t="n">
         <v>4.56</v>
       </c>
       <c r="E34" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F34" t="n">
-        <v>28300.6054</v>
+        <v>34264.5418</v>
       </c>
       <c r="G34" t="n">
-        <v>4.552166666666656</v>
+        <v>4.551166666666656</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,10 +1370,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C35" t="n">
         <v>4.55</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.56</v>
       </c>
       <c r="D35" t="n">
         <v>4.56</v>
@@ -1278,12 +1382,15 @@
         <v>4.55</v>
       </c>
       <c r="F35" t="n">
-        <v>4096.7016</v>
+        <v>28300.6054</v>
       </c>
       <c r="G35" t="n">
-        <v>4.553166666666656</v>
+        <v>4.552166666666656</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,21 +1402,24 @@
         <v>4.55</v>
       </c>
       <c r="C36" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D36" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E36" t="n">
         <v>4.55</v>
       </c>
       <c r="F36" t="n">
-        <v>42486.683</v>
+        <v>4096.7016</v>
       </c>
       <c r="G36" t="n">
-        <v>4.55399999999999</v>
+        <v>4.553166666666656</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1321,21 +1431,24 @@
         <v>4.55</v>
       </c>
       <c r="C37" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D37" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E37" t="n">
         <v>4.55</v>
       </c>
       <c r="F37" t="n">
-        <v>21951.7604</v>
+        <v>42486.683</v>
       </c>
       <c r="G37" t="n">
-        <v>4.555333333333323</v>
+        <v>4.55399999999999</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="C38" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="D38" t="n">
-        <v>4.52</v>
+        <v>4.56</v>
       </c>
       <c r="E38" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="F38" t="n">
-        <v>471858.9471</v>
+        <v>21951.7604</v>
       </c>
       <c r="G38" t="n">
-        <v>4.555666666666656</v>
+        <v>4.555333333333323</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E39" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F39" t="n">
-        <v>109894.7865</v>
+        <v>471858.9471</v>
       </c>
       <c r="G39" t="n">
-        <v>4.556166666666655</v>
+        <v>4.555666666666656</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>4.53</v>
       </c>
       <c r="F40" t="n">
-        <v>1239.913</v>
+        <v>109894.7865</v>
       </c>
       <c r="G40" t="n">
-        <v>4.556499999999988</v>
+        <v>4.556166666666655</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>4.53</v>
       </c>
       <c r="C41" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="D41" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="E41" t="n">
         <v>4.53</v>
       </c>
       <c r="F41" t="n">
-        <v>2293575.2108</v>
+        <v>1239.913</v>
       </c>
       <c r="G41" t="n">
-        <v>4.557666666666655</v>
+        <v>4.556499999999988</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.58</v>
+        <v>4.53</v>
       </c>
       <c r="C42" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="D42" t="n">
         <v>4.58</v>
       </c>
       <c r="E42" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="F42" t="n">
-        <v>25634.9942</v>
+        <v>2293575.2108</v>
       </c>
       <c r="G42" t="n">
-        <v>4.558499999999989</v>
+        <v>4.557666666666655</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="C43" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="D43" t="n">
-        <v>4.54</v>
+        <v>4.58</v>
       </c>
       <c r="E43" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="F43" t="n">
-        <v>44746.7901</v>
+        <v>25634.9942</v>
       </c>
       <c r="G43" t="n">
-        <v>4.559166666666655</v>
+        <v>4.558499999999989</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>4.54</v>
       </c>
       <c r="F44" t="n">
-        <v>93.6123</v>
+        <v>44746.7901</v>
       </c>
       <c r="G44" t="n">
-        <v>4.559833333333322</v>
+        <v>4.559166666666655</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="C45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="D45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="E45" t="n">
-        <v>4.52</v>
+        <v>4.54</v>
       </c>
       <c r="F45" t="n">
-        <v>1506323.2017</v>
+        <v>93.6123</v>
       </c>
       <c r="G45" t="n">
         <v>4.559833333333322</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>4.52</v>
       </c>
       <c r="F46" t="n">
-        <v>325256.504</v>
+        <v>1506323.2017</v>
       </c>
       <c r="G46" t="n">
         <v>4.559833333333322</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>4.52</v>
       </c>
       <c r="F47" t="n">
-        <v>50000</v>
+        <v>325256.504</v>
       </c>
       <c r="G47" t="n">
-        <v>4.559999999999989</v>
+        <v>4.559833333333322</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E48" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F48" t="n">
-        <v>403.9735</v>
+        <v>50000</v>
       </c>
       <c r="G48" t="n">
-        <v>4.559833333333321</v>
+        <v>4.559999999999989</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="D49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="E49" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="F49" t="n">
-        <v>362000</v>
+        <v>403.9735</v>
       </c>
       <c r="G49" t="n">
-        <v>4.559333333333321</v>
+        <v>4.559833333333321</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E50" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F50" t="n">
-        <v>18093.3774</v>
+        <v>362000</v>
       </c>
       <c r="G50" t="n">
-        <v>4.558999999999987</v>
+        <v>4.559333333333321</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>4.53</v>
       </c>
       <c r="F51" t="n">
-        <v>88330.68429999999</v>
+        <v>18093.3774</v>
       </c>
       <c r="G51" t="n">
-        <v>4.559166666666654</v>
+        <v>4.558999999999987</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="D52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="E52" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="F52" t="n">
-        <v>20117.049</v>
+        <v>88330.68429999999</v>
       </c>
       <c r="G52" t="n">
-        <v>4.55933333333332</v>
+        <v>4.559166666666654</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="C53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="D53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="E53" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F53" t="n">
-        <v>78000</v>
+        <v>20117.049</v>
       </c>
       <c r="G53" t="n">
-        <v>4.559666666666653</v>
+        <v>4.55933333333332</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>4.53</v>
       </c>
       <c r="F54" t="n">
-        <v>91000</v>
+        <v>78000</v>
       </c>
       <c r="G54" t="n">
-        <v>4.560166666666652</v>
+        <v>4.559666666666653</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C55" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="D55" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="E55" t="n">
-        <v>4.51</v>
+        <v>4.53</v>
       </c>
       <c r="F55" t="n">
-        <v>733397.8651000001</v>
+        <v>91000</v>
       </c>
       <c r="G55" t="n">
-        <v>4.559833333333319</v>
+        <v>4.560166666666652</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>4.52</v>
       </c>
       <c r="C56" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="D56" t="n">
         <v>4.52</v>
       </c>
       <c r="E56" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="F56" t="n">
-        <v>1978.0855</v>
+        <v>733397.8651000001</v>
       </c>
       <c r="G56" t="n">
-        <v>4.559499999999986</v>
+        <v>4.559833333333319</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="C57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="D57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="E57" t="n">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="F57" t="n">
-        <v>57472.8888</v>
+        <v>1978.0855</v>
       </c>
       <c r="G57" t="n">
-        <v>4.558833333333319</v>
+        <v>4.559499999999986</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="E58" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F58" t="n">
-        <v>50000</v>
+        <v>57472.8888</v>
       </c>
       <c r="G58" t="n">
-        <v>4.557999999999985</v>
+        <v>4.558833333333319</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="C59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="D59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="E59" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F59" t="n">
-        <v>18747.9644</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="n">
-        <v>4.557666666666652</v>
+        <v>4.557999999999985</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>4.5</v>
       </c>
       <c r="C60" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="D60" t="n">
         <v>4.5</v>
       </c>
       <c r="E60" t="n">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="F60" t="n">
-        <v>766908.8157</v>
+        <v>18747.9644</v>
       </c>
       <c r="G60" t="n">
-        <v>4.556833333333319</v>
+        <v>4.557666666666652</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="C61" t="n">
         <v>4.48</v>
       </c>
       <c r="D61" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="E61" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="F61" t="n">
-        <v>19203.4318</v>
+        <v>766908.8157</v>
       </c>
       <c r="G61" t="n">
-        <v>4.55583333333332</v>
+        <v>4.556833333333319</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="C62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="D62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="E62" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="F62" t="n">
-        <v>2232.6556</v>
+        <v>19203.4318</v>
       </c>
       <c r="G62" t="n">
-        <v>4.554666666666653</v>
+        <v>4.55583333333332</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>4.46</v>
       </c>
       <c r="F63" t="n">
-        <v>140057.4183</v>
+        <v>2232.6556</v>
       </c>
       <c r="G63" t="n">
-        <v>4.553333333333319</v>
+        <v>4.554666666666653</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,21 +2214,24 @@
         <v>4.46</v>
       </c>
       <c r="C64" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="D64" t="n">
-        <v>4.49</v>
+        <v>4.46</v>
       </c>
       <c r="E64" t="n">
         <v>4.46</v>
       </c>
       <c r="F64" t="n">
-        <v>78000</v>
+        <v>140057.4183</v>
       </c>
       <c r="G64" t="n">
-        <v>4.551999999999986</v>
+        <v>4.553333333333319</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.45</v>
+        <v>4.46</v>
       </c>
       <c r="C65" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="D65" t="n">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="E65" t="n">
-        <v>4.45</v>
+        <v>4.46</v>
       </c>
       <c r="F65" t="n">
-        <v>35682.1031</v>
+        <v>78000</v>
       </c>
       <c r="G65" t="n">
-        <v>4.550999999999986</v>
+        <v>4.551999999999986</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2269,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="C66" t="n">
         <v>4.5</v>
@@ -2081,15 +2278,18 @@
         <v>4.5</v>
       </c>
       <c r="E66" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="F66" t="n">
-        <v>110000.9999</v>
+        <v>35682.1031</v>
       </c>
       <c r="G66" t="n">
-        <v>4.549666666666653</v>
+        <v>4.550999999999986</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>4.5</v>
       </c>
       <c r="F67" t="n">
-        <v>2022.2222</v>
+        <v>110000.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>4.548666666666652</v>
+        <v>4.549666666666653</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="C68" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="E68" t="n">
-        <v>4.44</v>
+        <v>4.5</v>
       </c>
       <c r="F68" t="n">
-        <v>3700247.6565</v>
+        <v>2022.2222</v>
       </c>
       <c r="G68" t="n">
-        <v>4.54683333333332</v>
+        <v>4.548666666666652</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C69" t="n">
         <v>4.48</v>
       </c>
-      <c r="C69" t="n">
-        <v>4.51</v>
-      </c>
       <c r="D69" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="E69" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="F69" t="n">
-        <v>1899643.844122395</v>
+        <v>3700247.6565</v>
       </c>
       <c r="G69" t="n">
-        <v>4.545999999999987</v>
+        <v>4.54683333333332</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>4.48</v>
       </c>
       <c r="C70" t="n">
-        <v>4.48</v>
+        <v>4.51</v>
       </c>
       <c r="D70" t="n">
-        <v>4.48</v>
+        <v>4.51</v>
       </c>
       <c r="E70" t="n">
         <v>4.48</v>
       </c>
       <c r="F70" t="n">
-        <v>2081.1709</v>
+        <v>1899643.844122395</v>
       </c>
       <c r="G70" t="n">
-        <v>4.54483333333332</v>
+        <v>4.545999999999987</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="C71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="D71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="E71" t="n">
-        <v>4.46</v>
+        <v>4.48</v>
       </c>
       <c r="F71" t="n">
-        <v>3809.9407</v>
+        <v>2081.1709</v>
       </c>
       <c r="G71" t="n">
-        <v>4.542499999999986</v>
+        <v>4.54483333333332</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="C72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="D72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="E72" t="n">
-        <v>4.48</v>
+        <v>4.46</v>
       </c>
       <c r="F72" t="n">
-        <v>113000</v>
+        <v>3809.9407</v>
       </c>
       <c r="G72" t="n">
-        <v>4.540666666666653</v>
+        <v>4.542499999999986</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="C73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="D73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="E73" t="n">
-        <v>4.47</v>
+        <v>4.48</v>
       </c>
       <c r="F73" t="n">
-        <v>34199.4636</v>
+        <v>113000</v>
       </c>
       <c r="G73" t="n">
-        <v>4.538499999999987</v>
+        <v>4.540666666666653</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="C74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="D74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="E74" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="F74" t="n">
-        <v>208780.8035</v>
+        <v>34199.4636</v>
       </c>
       <c r="G74" t="n">
-        <v>4.536833333333321</v>
+        <v>4.538499999999987</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="C75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="D75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="E75" t="n">
-        <v>4.52</v>
+        <v>4.48</v>
       </c>
       <c r="F75" t="n">
-        <v>53957.3008</v>
+        <v>208780.8035</v>
       </c>
       <c r="G75" t="n">
-        <v>4.53583333333332</v>
+        <v>4.536833333333321</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="C76" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="D76" t="n">
-        <v>4.56</v>
+        <v>4.52</v>
       </c>
       <c r="E76" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="F76" t="n">
-        <v>78000</v>
+        <v>53957.3008</v>
       </c>
       <c r="G76" t="n">
-        <v>4.535333333333321</v>
+        <v>4.53583333333332</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="C77" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D77" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E77" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="F77" t="n">
-        <v>126000</v>
+        <v>78000</v>
       </c>
       <c r="G77" t="n">
-        <v>4.534999999999988</v>
+        <v>4.535333333333321</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C78" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D78" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E78" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F78" t="n">
-        <v>23000</v>
+        <v>126000</v>
       </c>
       <c r="G78" t="n">
-        <v>4.534833333333322</v>
+        <v>4.534999999999988</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2413,21 +2649,24 @@
         <v>4.58</v>
       </c>
       <c r="C79" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D79" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E79" t="n">
         <v>4.58</v>
       </c>
       <c r="F79" t="n">
-        <v>478273.9761552174</v>
+        <v>23000</v>
       </c>
       <c r="G79" t="n">
-        <v>4.533999999999989</v>
+        <v>4.534833333333322</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C80" t="n">
-        <v>4.56</v>
+        <v>4.6</v>
       </c>
       <c r="D80" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E80" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="F80" t="n">
-        <v>13379.2722</v>
+        <v>478273.9761552174</v>
       </c>
       <c r="G80" t="n">
-        <v>4.532499999999989</v>
+        <v>4.533999999999989</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>4.57</v>
       </c>
       <c r="C81" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="D81" t="n">
         <v>4.57</v>
       </c>
       <c r="E81" t="n">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="F81" t="n">
-        <v>234000</v>
+        <v>13379.2722</v>
       </c>
       <c r="G81" t="n">
-        <v>4.531166666666656</v>
+        <v>4.532499999999989</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>4.57</v>
       </c>
       <c r="C82" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="D82" t="n">
         <v>4.57</v>
       </c>
       <c r="E82" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>234000</v>
       </c>
       <c r="G82" t="n">
-        <v>4.531333333333323</v>
+        <v>4.531166666666656</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="C83" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D83" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="E83" t="n">
-        <v>4.55</v>
+        <v>4.57</v>
       </c>
       <c r="F83" t="n">
-        <v>225000</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="n">
-        <v>4.53149999999999</v>
+        <v>4.531333333333323</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="C84" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="D84" t="n">
-        <v>4.6</v>
+        <v>4.58</v>
       </c>
       <c r="E84" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="F84" t="n">
-        <v>2205.5978</v>
+        <v>225000</v>
       </c>
       <c r="G84" t="n">
-        <v>4.531333333333323</v>
+        <v>4.53149999999999</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>4.6</v>
       </c>
       <c r="F85" t="n">
-        <v>11265.6521</v>
+        <v>2205.5978</v>
       </c>
       <c r="G85" t="n">
-        <v>4.531166666666656</v>
+        <v>4.531333333333323</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>4.6</v>
       </c>
       <c r="F86" t="n">
-        <v>86769.23910000001</v>
+        <v>11265.6521</v>
       </c>
       <c r="G86" t="n">
-        <v>4.531666666666657</v>
+        <v>4.531166666666656</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="C87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="D87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="E87" t="n">
-        <v>4.57</v>
+        <v>4.6</v>
       </c>
       <c r="F87" t="n">
-        <v>10000</v>
+        <v>86769.23910000001</v>
       </c>
       <c r="G87" t="n">
         <v>4.531666666666657</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C88" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D88" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E88" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="F88" t="n">
-        <v>58342.8103</v>
+        <v>10000</v>
       </c>
       <c r="G88" t="n">
-        <v>4.53199999999999</v>
+        <v>4.531666666666657</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2673,21 +2939,24 @@
         <v>4.58</v>
       </c>
       <c r="C89" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D89" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E89" t="n">
         <v>4.58</v>
       </c>
       <c r="F89" t="n">
-        <v>90526.7205</v>
+        <v>58342.8103</v>
       </c>
       <c r="G89" t="n">
-        <v>4.531666666666656</v>
+        <v>4.53199999999999</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E90" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F90" t="n">
-        <v>302080.61</v>
+        <v>90526.7205</v>
       </c>
       <c r="G90" t="n">
-        <v>4.531833333333322</v>
+        <v>4.531666666666656</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E91" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F91" t="n">
-        <v>17549</v>
+        <v>302080.61</v>
       </c>
       <c r="G91" t="n">
         <v>4.531833333333322</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>4.57</v>
       </c>
       <c r="F92" t="n">
-        <v>50284.0437</v>
+        <v>17549</v>
       </c>
       <c r="G92" t="n">
-        <v>4.531999999999988</v>
+        <v>4.531833333333322</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E93" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F93" t="n">
-        <v>22758.414</v>
+        <v>50284.0437</v>
       </c>
       <c r="G93" t="n">
         <v>4.531999999999988</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>4.56</v>
       </c>
       <c r="F94" t="n">
-        <v>184585.4081</v>
+        <v>22758.414</v>
       </c>
       <c r="G94" t="n">
-        <v>4.532166666666655</v>
+        <v>4.531999999999988</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>4.56</v>
       </c>
       <c r="C95" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D95" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E95" t="n">
         <v>4.56</v>
       </c>
       <c r="F95" t="n">
-        <v>369000</v>
+        <v>184585.4081</v>
       </c>
       <c r="G95" t="n">
-        <v>4.532333333333322</v>
+        <v>4.532166666666655</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C96" t="n">
         <v>4.57</v>
@@ -2861,15 +3148,18 @@
         <v>4.57</v>
       </c>
       <c r="E96" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F96" t="n">
-        <v>25.3829</v>
+        <v>369000</v>
       </c>
       <c r="G96" t="n">
-        <v>4.532666666666655</v>
+        <v>4.532333333333322</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>4.57</v>
       </c>
       <c r="C97" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D97" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E97" t="n">
         <v>4.57</v>
       </c>
       <c r="F97" t="n">
-        <v>249138.1730204793</v>
+        <v>25.3829</v>
       </c>
       <c r="G97" t="n">
-        <v>4.533166666666655</v>
+        <v>4.532666666666655</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>4.57</v>
       </c>
       <c r="C98" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D98" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E98" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F98" t="n">
-        <v>465536.1194</v>
+        <v>249138.1730204793</v>
       </c>
       <c r="G98" t="n">
-        <v>4.533833333333321</v>
+        <v>4.533166666666655</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="C99" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D99" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E99" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F99" t="n">
-        <v>350000</v>
+        <v>465536.1194</v>
       </c>
       <c r="G99" t="n">
-        <v>4.534833333333322</v>
+        <v>4.533833333333321</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E100" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F100" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
       <c r="G100" t="n">
-        <v>4.535499999999988</v>
+        <v>4.534833333333322</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>4.57</v>
       </c>
       <c r="F101" t="n">
-        <v>145166.6666</v>
+        <v>10000</v>
       </c>
       <c r="G101" t="n">
-        <v>4.535333333333322</v>
+        <v>4.535499999999988</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="C102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E102" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F102" t="n">
-        <v>38000</v>
+        <v>145166.6666</v>
       </c>
       <c r="G102" t="n">
-        <v>4.535999999999988</v>
+        <v>4.535333333333322</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C103" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D103" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E103" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="F103" t="n">
-        <v>314515.0045</v>
+        <v>38000</v>
       </c>
       <c r="G103" t="n">
-        <v>4.536333333333321</v>
+        <v>4.535999999999988</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="C104" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D104" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E104" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F104" t="n">
-        <v>156000</v>
+        <v>314515.0045</v>
       </c>
       <c r="G104" t="n">
-        <v>4.537166666666653</v>
+        <v>4.536333333333321</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,7 +3400,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="C105" t="n">
         <v>4.59</v>
@@ -3095,15 +3409,18 @@
         <v>4.59</v>
       </c>
       <c r="E105" t="n">
-        <v>4.57</v>
+        <v>4.58</v>
       </c>
       <c r="F105" t="n">
-        <v>719.5137</v>
+        <v>156000</v>
       </c>
       <c r="G105" t="n">
-        <v>4.538333333333321</v>
+        <v>4.537166666666653</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C106" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D106" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="E106" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F106" t="n">
-        <v>90526.7205</v>
+        <v>719.5137</v>
       </c>
       <c r="G106" t="n">
-        <v>4.538999999999987</v>
+        <v>4.538333333333321</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="C107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="D107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="E107" t="n">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="F107" t="n">
-        <v>200</v>
+        <v>90526.7205</v>
       </c>
       <c r="G107" t="n">
-        <v>4.539833333333321</v>
+        <v>4.538999999999987</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>4.57</v>
       </c>
       <c r="F108" t="n">
-        <v>109800.3689</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>4.540499999999988</v>
+        <v>4.539833333333321</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>4.57</v>
       </c>
       <c r="C109" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D109" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E109" t="n">
         <v>4.57</v>
       </c>
       <c r="F109" t="n">
-        <v>12682.41090239651</v>
+        <v>109800.3689</v>
       </c>
       <c r="G109" t="n">
-        <v>4.541666666666655</v>
+        <v>4.540499999999988</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>4.57</v>
       </c>
       <c r="C110" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D110" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E110" t="n">
         <v>4.57</v>
       </c>
       <c r="F110" t="n">
-        <v>455978</v>
+        <v>12682.41090239651</v>
       </c>
       <c r="G110" t="n">
-        <v>4.542333333333321</v>
+        <v>4.541666666666655</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>4.57</v>
       </c>
       <c r="F111" t="n">
-        <v>12408.1102</v>
+        <v>455978</v>
       </c>
       <c r="G111" t="n">
-        <v>4.542999999999989</v>
+        <v>4.542333333333321</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="C112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="D112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="E112" t="n">
-        <v>4.59</v>
+        <v>4.57</v>
       </c>
       <c r="F112" t="n">
-        <v>137000</v>
+        <v>12408.1102</v>
       </c>
       <c r="G112" t="n">
-        <v>4.544166666666655</v>
+        <v>4.542999999999989</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="C113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="D113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="E113" t="n">
-        <v>4.57</v>
+        <v>4.59</v>
       </c>
       <c r="F113" t="n">
-        <v>107000</v>
+        <v>137000</v>
       </c>
       <c r="G113" t="n">
-        <v>4.544833333333322</v>
+        <v>4.544166666666655</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>4.57</v>
       </c>
       <c r="F114" t="n">
-        <v>35765.2445</v>
+        <v>107000</v>
       </c>
       <c r="G114" t="n">
-        <v>4.545499999999989</v>
+        <v>4.544833333333322</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3349,21 +3693,24 @@
         <v>4.57</v>
       </c>
       <c r="C115" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="D115" t="n">
         <v>4.57</v>
       </c>
       <c r="E115" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="F115" t="n">
-        <v>312000</v>
+        <v>35765.2445</v>
       </c>
       <c r="G115" t="n">
-        <v>4.546333333333322</v>
+        <v>4.545499999999989</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="C116" t="n">
         <v>4.56</v>
       </c>
       <c r="D116" t="n">
-        <v>4.56</v>
+        <v>4.57</v>
       </c>
       <c r="E116" t="n">
         <v>4.56</v>
       </c>
       <c r="F116" t="n">
-        <v>75120.7298</v>
+        <v>312000</v>
       </c>
       <c r="G116" t="n">
-        <v>4.546999999999989</v>
+        <v>4.546333333333322</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E117" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F117" t="n">
-        <v>136000</v>
+        <v>75120.7298</v>
       </c>
       <c r="G117" t="n">
-        <v>4.547833333333323</v>
+        <v>4.546999999999989</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="C118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E118" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="F118" t="n">
-        <v>43859.6491</v>
+        <v>136000</v>
       </c>
       <c r="G118" t="n">
-        <v>4.54899999999999</v>
+        <v>4.547833333333323</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="D119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="E119" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F119" t="n">
-        <v>78000</v>
+        <v>43859.6491</v>
       </c>
       <c r="G119" t="n">
-        <v>4.550333333333323</v>
+        <v>4.54899999999999</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="C120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="D120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="E120" t="n">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="F120" t="n">
-        <v>47707.8291</v>
+        <v>78000</v>
       </c>
       <c r="G120" t="n">
-        <v>4.551666666666656</v>
+        <v>4.550333333333323</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,21 +3867,24 @@
         <v>4.56</v>
       </c>
       <c r="C121" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D121" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E121" t="n">
         <v>4.56</v>
       </c>
       <c r="F121" t="n">
-        <v>58433.76178910676</v>
+        <v>47707.8291</v>
       </c>
       <c r="G121" t="n">
-        <v>4.553499999999988</v>
+        <v>4.551666666666656</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="C122" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D122" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E122" t="n">
-        <v>4.58</v>
+        <v>4.56</v>
       </c>
       <c r="F122" t="n">
-        <v>100000</v>
+        <v>58433.76178910676</v>
       </c>
       <c r="G122" t="n">
-        <v>4.555499999999989</v>
+        <v>4.553499999999988</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>4.58</v>
       </c>
       <c r="F123" t="n">
-        <v>25933.869</v>
+        <v>100000</v>
       </c>
       <c r="G123" t="n">
-        <v>4.557499999999989</v>
+        <v>4.555499999999989</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>4.58</v>
       </c>
       <c r="F124" t="n">
-        <v>53822.4076</v>
+        <v>25933.869</v>
       </c>
       <c r="G124" t="n">
-        <v>4.558999999999988</v>
+        <v>4.557499999999989</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>4.58</v>
       </c>
       <c r="F125" t="n">
-        <v>33976.9823</v>
+        <v>53822.4076</v>
       </c>
       <c r="G125" t="n">
-        <v>4.560333333333321</v>
+        <v>4.558999999999988</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>4.58</v>
       </c>
       <c r="F126" t="n">
-        <v>86000</v>
+        <v>33976.9823</v>
       </c>
       <c r="G126" t="n">
-        <v>4.561666666666654</v>
+        <v>4.560333333333321</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="D127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E127" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="F127" t="n">
-        <v>364000</v>
+        <v>86000</v>
       </c>
       <c r="G127" t="n">
-        <v>4.563166666666654</v>
+        <v>4.561666666666654</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="C128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E128" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="F128" t="n">
-        <v>134571.2552</v>
+        <v>364000</v>
       </c>
       <c r="G128" t="n">
-        <v>4.56483333333332</v>
+        <v>4.563166666666654</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>4.58</v>
       </c>
       <c r="F129" t="n">
-        <v>349000</v>
+        <v>134571.2552</v>
       </c>
       <c r="G129" t="n">
-        <v>4.565999999999987</v>
+        <v>4.56483333333332</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>4.58</v>
       </c>
       <c r="F130" t="n">
-        <v>68000</v>
+        <v>349000</v>
       </c>
       <c r="G130" t="n">
-        <v>4.567666666666653</v>
+        <v>4.565999999999987</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>4.58</v>
       </c>
       <c r="F131" t="n">
-        <v>792000</v>
+        <v>68000</v>
       </c>
       <c r="G131" t="n">
-        <v>4.569666666666652</v>
+        <v>4.567666666666653</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>4.58</v>
       </c>
       <c r="F132" t="n">
-        <v>242926</v>
+        <v>792000</v>
       </c>
       <c r="G132" t="n">
-        <v>4.571333333333318</v>
+        <v>4.569666666666652</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>4.58</v>
       </c>
       <c r="F133" t="n">
-        <v>607315</v>
+        <v>242926</v>
       </c>
       <c r="G133" t="n">
-        <v>4.573166666666651</v>
+        <v>4.571333333333318</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3843,21 +4244,24 @@
         <v>4.58</v>
       </c>
       <c r="C134" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="D134" t="n">
         <v>4.58</v>
       </c>
       <c r="E134" t="n">
-        <v>4.55</v>
+        <v>4.58</v>
       </c>
       <c r="F134" t="n">
-        <v>682000</v>
+        <v>607315</v>
       </c>
       <c r="G134" t="n">
-        <v>4.574333333333318</v>
+        <v>4.573166666666651</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C135" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="D135" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="E135" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F135" t="n">
-        <v>435.7298</v>
+        <v>682000</v>
       </c>
       <c r="G135" t="n">
-        <v>4.575499999999985</v>
+        <v>4.574333333333318</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="C136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="D136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="E136" t="n">
-        <v>4.56</v>
+        <v>4.59</v>
       </c>
       <c r="F136" t="n">
-        <v>13284.8538</v>
+        <v>435.7298</v>
       </c>
       <c r="G136" t="n">
         <v>4.575499999999985</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>4.56</v>
       </c>
       <c r="C137" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D137" t="n">
         <v>4.56</v>
       </c>
       <c r="E137" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F137" t="n">
-        <v>381000</v>
+        <v>13284.8538</v>
       </c>
       <c r="G137" t="n">
-        <v>4.575166666666651</v>
+        <v>4.575499999999985</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C138" t="n">
         <v>4.55</v>
       </c>
       <c r="D138" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E138" t="n">
         <v>4.55</v>
       </c>
       <c r="F138" t="n">
-        <v>32278.1332</v>
+        <v>381000</v>
       </c>
       <c r="G138" t="n">
-        <v>4.574666666666652</v>
+        <v>4.575166666666651</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>4.55</v>
       </c>
       <c r="F139" t="n">
-        <v>22548.6627</v>
+        <v>32278.1332</v>
       </c>
       <c r="G139" t="n">
-        <v>4.573833333333318</v>
+        <v>4.574666666666652</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3999,21 +4418,24 @@
         <v>4.55</v>
       </c>
       <c r="C140" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="D140" t="n">
         <v>4.55</v>
       </c>
       <c r="E140" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="F140" t="n">
-        <v>302748.1788</v>
+        <v>22548.6627</v>
       </c>
       <c r="G140" t="n">
-        <v>4.573333333333318</v>
+        <v>4.573833333333318</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="C141" t="n">
         <v>4.53</v>
       </c>
       <c r="D141" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E141" t="n">
         <v>4.53</v>
       </c>
       <c r="F141" t="n">
-        <v>232768.0597</v>
+        <v>302748.1788</v>
       </c>
       <c r="G141" t="n">
-        <v>4.57316666666665</v>
+        <v>4.573333333333318</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>4.53</v>
       </c>
       <c r="F142" t="n">
-        <v>252958.8977</v>
+        <v>232768.0597</v>
       </c>
       <c r="G142" t="n">
-        <v>4.572499999999983</v>
+        <v>4.57316666666665</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C143" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="D143" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E143" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="F143" t="n">
-        <v>157899.8448</v>
+        <v>252958.8977</v>
       </c>
       <c r="G143" t="n">
-        <v>4.571499999999983</v>
+        <v>4.572499999999983</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="C144" t="n">
         <v>4.52</v>
       </c>
       <c r="D144" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="E144" t="n">
         <v>4.52</v>
       </c>
       <c r="F144" t="n">
-        <v>326421.538</v>
+        <v>157899.8448</v>
       </c>
       <c r="G144" t="n">
-        <v>4.570166666666649</v>
+        <v>4.571499999999983</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C145" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="D145" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="E145" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="F145" t="n">
-        <v>323118.9918</v>
+        <v>326421.538</v>
       </c>
       <c r="G145" t="n">
-        <v>4.569333333333316</v>
+        <v>4.570166666666649</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="C146" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="D146" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="E146" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="F146" t="n">
-        <v>15438.1278</v>
+        <v>323118.9918</v>
       </c>
       <c r="G146" t="n">
-        <v>4.568666666666648</v>
+        <v>4.569333333333316</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="C147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="D147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="E147" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F147" t="n">
-        <v>556000</v>
+        <v>15438.1278</v>
       </c>
       <c r="G147" t="n">
-        <v>4.568333333333316</v>
+        <v>4.568666666666648</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>4.55</v>
       </c>
       <c r="F148" t="n">
-        <v>18759.6916</v>
+        <v>556000</v>
       </c>
       <c r="G148" t="n">
-        <v>4.56766666666665</v>
+        <v>4.568333333333316</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="C149" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="D149" t="n">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E149" t="n">
-        <v>4.52</v>
+        <v>4.55</v>
       </c>
       <c r="F149" t="n">
-        <v>1747191.778</v>
+        <v>18759.6916</v>
       </c>
       <c r="G149" t="n">
-        <v>4.56666666666665</v>
+        <v>4.56766666666665</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.53</v>
+        <v>4.54</v>
       </c>
       <c r="C150" t="n">
-        <v>4.54</v>
+        <v>4.52</v>
       </c>
       <c r="D150" t="n">
         <v>4.54</v>
       </c>
       <c r="E150" t="n">
-        <v>4.53</v>
+        <v>4.52</v>
       </c>
       <c r="F150" t="n">
-        <v>34095.3338</v>
+        <v>1747191.778</v>
       </c>
       <c r="G150" t="n">
-        <v>4.565833333333317</v>
+        <v>4.56666666666665</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,21 +4737,24 @@
         <v>4.53</v>
       </c>
       <c r="C151" t="n">
-        <v>4.56</v>
+        <v>4.54</v>
       </c>
       <c r="D151" t="n">
-        <v>4.57</v>
+        <v>4.54</v>
       </c>
       <c r="E151" t="n">
         <v>4.53</v>
       </c>
       <c r="F151" t="n">
-        <v>210021</v>
+        <v>34095.3338</v>
       </c>
       <c r="G151" t="n">
-        <v>4.56566666666665</v>
+        <v>4.565833333333317</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="C152" t="n">
-        <v>4.5</v>
+        <v>4.56</v>
       </c>
       <c r="D152" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E152" t="n">
-        <v>4.5</v>
+        <v>4.53</v>
       </c>
       <c r="F152" t="n">
-        <v>150</v>
+        <v>210021</v>
       </c>
       <c r="G152" t="n">
-        <v>4.564499999999984</v>
+        <v>4.56566666666665</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E153" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F153" t="n">
         <v>150</v>
       </c>
       <c r="G153" t="n">
-        <v>4.56366666666665</v>
+        <v>4.564499999999984</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="C154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="D154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="E154" t="n">
-        <v>4.53</v>
+        <v>4.51</v>
       </c>
       <c r="F154" t="n">
-        <v>96000</v>
+        <v>150</v>
       </c>
       <c r="G154" t="n">
-        <v>4.56316666666665</v>
+        <v>4.56366666666665</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="C155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="D155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="E155" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="F155" t="n">
-        <v>106000</v>
+        <v>96000</v>
       </c>
       <c r="G155" t="n">
-        <v>4.56266666666665</v>
+        <v>4.56316666666665</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="C156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="D156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="E156" t="n">
-        <v>4.5</v>
+        <v>4.54</v>
       </c>
       <c r="F156" t="n">
-        <v>19554.5239</v>
+        <v>106000</v>
       </c>
       <c r="G156" t="n">
-        <v>4.561499999999984</v>
+        <v>4.56266666666665</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="C157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="D157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="E157" t="n">
-        <v>4.49</v>
+        <v>4.5</v>
       </c>
       <c r="F157" t="n">
-        <v>50000</v>
+        <v>19554.5239</v>
       </c>
       <c r="G157" t="n">
-        <v>4.559833333333318</v>
+        <v>4.561499999999984</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>4.49</v>
       </c>
       <c r="F158" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G158" t="n">
-        <v>4.558666666666651</v>
+        <v>4.559833333333318</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="C159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="D159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="E159" t="n">
-        <v>4.48</v>
+        <v>4.49</v>
       </c>
       <c r="F159" t="n">
-        <v>164501.8593</v>
+        <v>10000</v>
       </c>
       <c r="G159" t="n">
-        <v>4.556833333333318</v>
+        <v>4.558666666666651</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>4.48</v>
       </c>
       <c r="F160" t="n">
-        <v>101055.0408</v>
+        <v>164501.8593</v>
       </c>
       <c r="G160" t="n">
-        <v>4.555333333333319</v>
+        <v>4.556833333333318</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>4.48</v>
       </c>
       <c r="F161" t="n">
-        <v>19528.8141</v>
+        <v>101055.0408</v>
       </c>
       <c r="G161" t="n">
-        <v>4.553833333333319</v>
+        <v>4.555333333333319</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.45</v>
+        <v>4.48</v>
       </c>
       <c r="C162" t="n">
-        <v>4.44</v>
+        <v>4.48</v>
       </c>
       <c r="D162" t="n">
-        <v>4.45</v>
+        <v>4.48</v>
       </c>
       <c r="E162" t="n">
-        <v>4.44</v>
+        <v>4.48</v>
       </c>
       <c r="F162" t="n">
-        <v>164449.4112</v>
+        <v>19528.8141</v>
       </c>
       <c r="G162" t="n">
-        <v>4.55133333333332</v>
+        <v>4.553833333333319</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C163" t="n">
         <v>4.44</v>
       </c>
-      <c r="C163" t="n">
-        <v>4.43</v>
-      </c>
       <c r="D163" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="E163" t="n">
         <v>4.44</v>
       </c>
-      <c r="E163" t="n">
-        <v>4.43</v>
-      </c>
       <c r="F163" t="n">
-        <v>429370.4621</v>
+        <v>164449.4112</v>
       </c>
       <c r="G163" t="n">
-        <v>4.549166666666653</v>
+        <v>4.55133333333332</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.42</v>
+        <v>4.44</v>
       </c>
       <c r="C164" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="D164" t="n">
-        <v>4.42</v>
+        <v>4.44</v>
       </c>
       <c r="E164" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="F164" t="n">
-        <v>11247.0853</v>
+        <v>429370.4621</v>
       </c>
       <c r="G164" t="n">
-        <v>4.546333333333321</v>
+        <v>4.549166666666653</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="C165" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="D165" t="n">
-        <v>4.41</v>
+        <v>4.42</v>
       </c>
       <c r="E165" t="n">
-        <v>4.4</v>
+        <v>4.42</v>
       </c>
       <c r="F165" t="n">
-        <v>440523.3661</v>
+        <v>11247.0853</v>
       </c>
       <c r="G165" t="n">
-        <v>4.543166666666654</v>
+        <v>4.546333333333321</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.44</v>
+        <v>4.41</v>
       </c>
       <c r="C166" t="n">
-        <v>4.46</v>
+        <v>4.4</v>
       </c>
       <c r="D166" t="n">
-        <v>4.46</v>
+        <v>4.41</v>
       </c>
       <c r="E166" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="F166" t="n">
-        <v>349000</v>
+        <v>440523.3661</v>
       </c>
       <c r="G166" t="n">
-        <v>4.541499999999987</v>
+        <v>4.543166666666654</v>
       </c>
       <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="C167" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="D167" t="n">
-        <v>4.47</v>
+        <v>4.46</v>
       </c>
       <c r="E167" t="n">
-        <v>4.47</v>
+        <v>4.44</v>
       </c>
       <c r="F167" t="n">
-        <v>79104.9238</v>
+        <v>349000</v>
       </c>
       <c r="G167" t="n">
-        <v>4.539833333333321</v>
+        <v>4.541499999999987</v>
       </c>
       <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="C168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="D168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="E168" t="n">
-        <v>4.48</v>
+        <v>4.47</v>
       </c>
       <c r="F168" t="n">
-        <v>21211.2915</v>
+        <v>79104.9238</v>
       </c>
       <c r="G168" t="n">
-        <v>4.538333333333322</v>
+        <v>4.539833333333321</v>
       </c>
       <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="C169" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="D169" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="E169" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="F169" t="n">
-        <v>1111402.2172</v>
+        <v>21211.2915</v>
       </c>
       <c r="G169" t="n">
-        <v>4.536999999999988</v>
+        <v>4.538333333333322</v>
       </c>
       <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,7 +5285,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="C170" t="n">
         <v>4.51</v>
@@ -4785,15 +5294,18 @@
         <v>4.51</v>
       </c>
       <c r="E170" t="n">
-        <v>4.51</v>
+        <v>4.49</v>
       </c>
       <c r="F170" t="n">
-        <v>1807.9822</v>
+        <v>1111402.2172</v>
       </c>
       <c r="G170" t="n">
-        <v>4.535999999999988</v>
+        <v>4.536999999999988</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="C171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="D171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="E171" t="n">
-        <v>4.5</v>
+        <v>4.51</v>
       </c>
       <c r="F171" t="n">
-        <v>70360</v>
+        <v>1807.9822</v>
       </c>
       <c r="G171" t="n">
-        <v>4.534833333333322</v>
+        <v>4.535999999999988</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="C172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="D172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="E172" t="n">
-        <v>4.51</v>
+        <v>4.5</v>
       </c>
       <c r="F172" t="n">
-        <v>2015.2909</v>
+        <v>70360</v>
       </c>
       <c r="G172" t="n">
-        <v>4.533499999999989</v>
+        <v>4.534833333333322</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="C173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="D173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="E173" t="n">
-        <v>4.52</v>
+        <v>4.51</v>
       </c>
       <c r="F173" t="n">
-        <v>19798.0088</v>
+        <v>2015.2909</v>
       </c>
       <c r="G173" t="n">
-        <v>4.532666666666655</v>
+        <v>4.533499999999989</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="C174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="D174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="E174" t="n">
-        <v>4.49</v>
+        <v>4.52</v>
       </c>
       <c r="F174" t="n">
-        <v>20071.3526</v>
+        <v>19798.0088</v>
       </c>
       <c r="G174" t="n">
-        <v>4.531333333333322</v>
+        <v>4.532666666666655</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>4.49</v>
       </c>
       <c r="F175" t="n">
-        <v>21650.5981</v>
+        <v>20071.3526</v>
       </c>
       <c r="G175" t="n">
-        <v>4.530166666666656</v>
+        <v>4.531333333333322</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>4.49</v>
       </c>
       <c r="F176" t="n">
-        <v>3700.7008</v>
+        <v>21650.5981</v>
       </c>
       <c r="G176" t="n">
-        <v>4.528999999999988</v>
+        <v>4.530166666666656</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="C177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="D177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="E177" t="n">
-        <v>4.44</v>
+        <v>4.49</v>
       </c>
       <c r="F177" t="n">
-        <v>21758.7664</v>
+        <v>3700.7008</v>
       </c>
       <c r="G177" t="n">
-        <v>4.527166666666655</v>
+        <v>4.528999999999988</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>4.44</v>
       </c>
       <c r="F178" t="n">
-        <v>217000</v>
+        <v>21758.7664</v>
       </c>
       <c r="G178" t="n">
-        <v>4.525166666666655</v>
+        <v>4.527166666666655</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>4.44</v>
       </c>
       <c r="F179" t="n">
-        <v>228000</v>
+        <v>217000</v>
       </c>
       <c r="G179" t="n">
-        <v>4.522833333333322</v>
+        <v>4.525166666666655</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5039,21 +5578,24 @@
         <v>4.44</v>
       </c>
       <c r="C180" t="n">
-        <v>4.41</v>
+        <v>4.44</v>
       </c>
       <c r="D180" t="n">
         <v>4.44</v>
       </c>
       <c r="E180" t="n">
-        <v>4.41</v>
+        <v>4.44</v>
       </c>
       <c r="F180" t="n">
-        <v>161075.0173</v>
+        <v>228000</v>
       </c>
       <c r="G180" t="n">
-        <v>4.520333333333323</v>
+        <v>4.522833333333322</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.4</v>
+        <v>4.44</v>
       </c>
       <c r="C181" t="n">
         <v>4.41</v>
       </c>
       <c r="D181" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E181" t="n">
         <v>4.41</v>
       </c>
-      <c r="E181" t="n">
-        <v>4.4</v>
-      </c>
       <c r="F181" t="n">
-        <v>622749.2506</v>
+        <v>161075.0173</v>
       </c>
       <c r="G181" t="n">
-        <v>4.517333333333323</v>
+        <v>4.520333333333323</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C182" t="n">
         <v>4.41</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.39</v>
       </c>
       <c r="D182" t="n">
         <v>4.41</v>
       </c>
       <c r="E182" t="n">
-        <v>4.39</v>
+        <v>4.4</v>
       </c>
       <c r="F182" t="n">
-        <v>78000</v>
+        <v>622749.2506</v>
       </c>
       <c r="G182" t="n">
-        <v>4.514166666666656</v>
+        <v>4.517333333333323</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="C183" t="n">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="D183" t="n">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="E183" t="n">
-        <v>4.42</v>
+        <v>4.39</v>
       </c>
       <c r="F183" t="n">
-        <v>234000</v>
+        <v>78000</v>
       </c>
       <c r="G183" t="n">
-        <v>4.511666666666657</v>
+        <v>4.514166666666656</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,7 +5691,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="C184" t="n">
         <v>4.43</v>
@@ -5149,15 +5700,18 @@
         <v>4.43</v>
       </c>
       <c r="E184" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="F184" t="n">
-        <v>2471.9101</v>
+        <v>234000</v>
       </c>
       <c r="G184" t="n">
-        <v>4.509166666666657</v>
+        <v>4.511666666666657</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="C185" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="D185" t="n">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="E185" t="n">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="F185" t="n">
-        <v>53543.0539</v>
+        <v>2471.9101</v>
       </c>
       <c r="G185" t="n">
-        <v>4.506333333333325</v>
+        <v>4.509166666666657</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5195,541 +5752,24 @@
         <v>4.42</v>
       </c>
       <c r="C186" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="D186" t="n">
         <v>4.42</v>
       </c>
       <c r="E186" t="n">
-        <v>4.42</v>
+        <v>4.41</v>
       </c>
       <c r="F186" t="n">
-        <v>33936.6515</v>
+        <v>53543.0539</v>
       </c>
       <c r="G186" t="n">
-        <v>4.503666666666659</v>
+        <v>4.506333333333325</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E187" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>100</v>
-      </c>
-      <c r="G187" t="n">
-        <v>4.500499999999992</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E188" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F188" t="n">
-        <v>6597.004</v>
-      </c>
-      <c r="G188" t="n">
-        <v>4.497333333333326</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E189" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9419.413</v>
-      </c>
-      <c r="G189" t="n">
-        <v>4.494833333333326</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F190" t="n">
-        <v>9398.1981</v>
-      </c>
-      <c r="G190" t="n">
-        <v>4.492499999999993</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E191" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F191" t="n">
-        <v>27000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4.489833333333326</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E192" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F192" t="n">
-        <v>161305.1194</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4.48666666666666</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E193" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F193" t="n">
-        <v>4420</v>
-      </c>
-      <c r="G193" t="n">
-        <v>4.483833333333327</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F194" t="n">
-        <v>71296.3382</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4.481499999999994</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E195" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F195" t="n">
-        <v>20125.668</v>
-      </c>
-      <c r="G195" t="n">
-        <v>4.478666666666661</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E196" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F196" t="n">
-        <v>6179.2138</v>
-      </c>
-      <c r="G196" t="n">
-        <v>4.476333333333328</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E197" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F197" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G197" t="n">
-        <v>4.474166666666662</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E198" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F198" t="n">
-        <v>10536.286</v>
-      </c>
-      <c r="G198" t="n">
-        <v>4.472166666666662</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E199" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F199" t="n">
-        <v>20618.8832</v>
-      </c>
-      <c r="G199" t="n">
-        <v>4.470166666666661</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F200" t="n">
-        <v>31155.1686</v>
-      </c>
-      <c r="G200" t="n">
-        <v>4.468666666666662</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="E201" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="F201" t="n">
-        <v>100</v>
-      </c>
-      <c r="G201" t="n">
-        <v>4.467499999999996</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E202" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1466</v>
-      </c>
-      <c r="G202" t="n">
-        <v>4.466999999999996</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F203" t="n">
-        <v>120546.2222</v>
-      </c>
-      <c r="G203" t="n">
-        <v>4.466666666666663</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F204" t="n">
-        <v>49570.4836</v>
-      </c>
-      <c r="G204" t="n">
-        <v>4.466333333333329</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F205" t="n">
-        <v>35824.1415</v>
-      </c>
-      <c r="G205" t="n">
-        <v>4.465499999999996</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F206" t="n">
-        <v>12484.1762</v>
-      </c>
-      <c r="G206" t="n">
-        <v>4.464499999999997</v>
-      </c>
-      <c r="H206" t="n">
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
